--- a/biology/Zoologie/Cremastus_primus/Cremastus_primus.xlsx
+++ b/biology/Zoologie/Cremastus_primus/Cremastus_primus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cremastus primus est une espèce fossile d'insectes Hyménoptères de la tribu des Crémastides (sous-famille des Ophioninae, famille des Ichneumonidae). Selon Paleobiology Database en 2022, c'est la seule espèce fossile du genre Cremastus.
 </t>
@@ -511,13 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Cremastus primus est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse[1]. 
-Fossiles
-L'holotype R939, ainsi que R956 (empreinte et contre-empreinte) de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma) faisait partie de la collection Mieg du musée de Bâle en Suisse[note 1] et vient du gisement de Kleinkembs (mine de sel).
-Étymologie
-L'épithète spécifique primus signifie en latin « la première ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Cremastus primus est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse. 
 </t>
         </is>
       </c>
@@ -543,19 +553,170 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype R939, ainsi que R956 (empreinte et contre-empreinte) de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma) faisait partie de la collection Mieg du musée de Bâle en Suisse[note 1] et vient du gisement de Kleinkembs (mine de sel).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cremastus_primus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cremastus_primus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique primus signifie en latin « la première ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cremastus_primus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cremastus_primus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[2],[note 2] : 
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 2] : 
 « Insecte de coloration noire sur tête, thorax et fémur ; brune sur abdomen et tibia, brunâtre sur tarière. aile brun clair avec stigma noir.
-Tête écrasée ; deux gros yeux proéminents ; antennes filiformes, aussi longues que le corps ; thorax bombé, nettement segmenté, métanotum convexe ; thorax plus long que haut. Abdomen élancé, recourbé ; huit segments et une tarière ayant les trois quarts de la longueur de l'abdomen ; premier segment allongé, la partie basale est pétiolée, l'extrémité est légèrement renflée ; le sixième segment est le plus gros ; les troisième, cinquième, sixième et septième segments portent une bande transversale claire. Pattes longues avec fémurs assez forts ; tibias III dépassent l'extrémité de l'abdomen. Ailes bien conservées, se recouvrant en partie sur l'échantillon ; nervation bien visible (v. fig), stigma subtriangulaire ; nervure radiale part du milieu du stigma, pas d'aréole ; nervure récurrent débouchant au-delà de la nervure aréolaire ; microtriches abondantes dans l'aire sous-costale, clairsemées dans les autres cellules. »[2].
-Dimensions
-La longueur totale est de 10,5 mm (y compris tarière), la longueur de l'abdomen est de 4,5 mm et de la tarière 3 mmm[2].
-Affinités
-« L'absence de l'aréole, l'abdomen comprimé latéralement et pétiolé, nous a conduit à attribuer cet échantillon aux Ophioninae. dans le g. Cremastus la nervation des ailes est identique. Ce genre a une extension universelle »[2].
+Tête écrasée ; deux gros yeux proéminents ; antennes filiformes, aussi longues que le corps ; thorax bombé, nettement segmenté, métanotum convexe ; thorax plus long que haut. Abdomen élancé, recourbé ; huit segments et une tarière ayant les trois quarts de la longueur de l'abdomen ; premier segment allongé, la partie basale est pétiolée, l'extrémité est légèrement renflée ; le sixième segment est le plus gros ; les troisième, cinquième, sixième et septième segments portent une bande transversale claire. Pattes longues avec fémurs assez forts ; tibias III dépassent l'extrémité de l'abdomen. Ailes bien conservées, se recouvrant en partie sur l'échantillon ; nervation bien visible (v. fig), stigma subtriangulaire ; nervure radiale part du milieu du stigma, pas d'aréole ; nervure récurrent débouchant au-delà de la nervure aréolaire ; microtriches abondantes dans l'aire sous-costale, clairsemées dans les autres cellules. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cremastus_primus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cremastus_primus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale est de 10,5 mm (y compris tarière), la longueur de l'abdomen est de 4,5 mm et de la tarière 3 mmm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cremastus_primus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cremastus_primus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« L'absence de l'aréole, l'abdomen comprimé latéralement et pétiolé, nous a conduit à attribuer cet échantillon aux Ophioninae. dans le g. Cremastus la nervation des ailes est identique. Ce genre a une extension universelle ».
 </t>
         </is>
       </c>
